--- a/policing_study_contracts/Contracts.xlsx
+++ b/policing_study_contracts/Contracts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericchandler/dev/ucjp-public-data/policing_study_contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A3E654-5F84-2046-93F6-0DD3F2F4BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9B25E-E884-9249-A081-E7A4B29CE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{2897005F-A7DB-7A4B-AED2-F3E24885A5EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
   <si>
     <t>911 Analysis</t>
   </si>
@@ -522,13 +522,31 @@
   </si>
   <si>
     <t>Contract With</t>
+  </si>
+  <si>
+    <t>DC BWC RCT</t>
+  </si>
+  <si>
+    <t>A randomized control trial evaluating the effects of police body-worn cameras</t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1814773116</t>
+  </si>
+  <si>
+    <t>ASU BWC RCT</t>
+  </si>
+  <si>
+    <t>2023-FOIA-08968.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,6 +596,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,10 +622,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,8 +634,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4221BE9-E742-8E4F-8AEB-C256CC5E36C0}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1209,7 @@
         <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>80</v>
@@ -1191,7 +1220,7 @@
         <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>82</v>
@@ -1202,7 +1231,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>83</v>
@@ -1213,7 +1242,7 @@
         <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>84</v>
@@ -1224,7 +1253,7 @@
         <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>86</v>
@@ -1235,7 +1264,7 @@
         <v>81</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>89</v>
@@ -1246,7 +1275,7 @@
         <v>81</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>90</v>
@@ -1257,7 +1286,7 @@
         <v>81</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>91</v>
@@ -1268,7 +1297,7 @@
         <v>81</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>92</v>
@@ -1279,7 +1308,7 @@
         <v>81</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>93</v>
@@ -1290,7 +1319,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>94</v>
@@ -1301,7 +1330,7 @@
         <v>81</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>95</v>
@@ -1312,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>96</v>
@@ -1323,7 +1352,7 @@
         <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>97</v>
@@ -1334,7 +1363,7 @@
         <v>81</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>98</v>
@@ -1345,7 +1374,7 @@
         <v>81</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>103</v>
@@ -1356,7 +1385,7 @@
         <v>81</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>104</v>
@@ -1367,7 +1396,7 @@
         <v>81</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>105</v>
@@ -1378,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>106</v>
@@ -1404,6 +1433,17 @@
       </c>
       <c r="C43" s="5" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1418,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC85F7C-9DCA-FA48-A086-673D22B24751}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1531,7 @@
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -1502,7 +1542,7 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>149</v>
@@ -1513,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -1524,7 +1564,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -1535,7 +1575,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -1546,7 +1586,7 @@
         <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
         <v>145</v>
@@ -1557,7 +1597,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -1783,17 +1823,31 @@
         <v>54</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C33" r:id="rId1" xr:uid="{9E51DD67-1EEF-7341-A8FA-3426A9DFCA43}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606EBB6A-158D-6943-9896-89ACAC20AB4E}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1844,7 +1898,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -1959,6 +2013,14 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1969,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6AD3E6-8C5E-E343-A99E-0C1105DA298B}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,6 +2410,14 @@
         <v>158</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/policing_study_contracts/Contracts.xlsx
+++ b/policing_study_contracts/Contracts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericchandler/dev/ucjp-public-data/policing_study_contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9B25E-E884-9249-A081-E7A4B29CE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB56EB-C31E-FA47-BB41-8BFEF3CE1DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{2897005F-A7DB-7A4B-AED2-F3E24885A5EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="195">
   <si>
     <t>911 Analysis</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Study Name</t>
   </si>
   <si>
-    <t>BWC RCT</t>
-  </si>
-  <si>
     <t>Paper Title</t>
   </si>
   <si>
@@ -251,295 +248,382 @@
     <t>12662 FE NYPD Agreement.pdf</t>
   </si>
   <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Atypical Work Hours and Metabolic Syndrome Among Police Officers</t>
+  </si>
+  <si>
+    <t>CHM_UWPD_MOU-May_2018_signed.pdf</t>
+  </si>
+  <si>
+    <t>CID1724_MITRE_-_Fully_Executed_Agreement.pdf</t>
+  </si>
+  <si>
+    <t>Pinellas County</t>
+  </si>
+  <si>
+    <t>CID2810_NIST_PCSO_Face_DTA_FULLY_EXECUTED.pdf</t>
+  </si>
+  <si>
+    <t>Data Use Agreement -- De-Escalation.pdf</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Spokane</t>
+  </si>
+  <si>
+    <t>David_Choate_ASU_NDA_2017.pdf</t>
+  </si>
+  <si>
+    <t>David_Choate_NDA_Word_Updated_for_2017.pdf</t>
+  </si>
+  <si>
+    <t>Randomized-Trial Evaluation of a Law Enforcement Application for Smartphones and Laptops that Uses GIS and Location-Based Services' to Pinpoint Persons-of-Interest</t>
+  </si>
+  <si>
+    <t>Gaub__Choate_Signed_NDA.pdf</t>
+  </si>
+  <si>
+    <t>Haynes 11500 Data Permission.pdf</t>
+  </si>
+  <si>
+    <t>Homeland Security Risk and Preparedness in Police Agencies: The Insignificance of Actual Risk Factors</t>
+  </si>
+  <si>
+    <t>Janne_Gaub_ASU_NDA_2017.pdf</t>
+  </si>
+  <si>
+    <t>Janne_Gaub_ASU_Signed_NDA.pdf</t>
+  </si>
+  <si>
+    <t>Janne_Gaub_NDA_Word_Updated_for_2017.pdf</t>
+  </si>
+  <si>
+    <t>Janne_Gaub_NDA_Word.pdf</t>
+  </si>
+  <si>
+    <t>Janne_Unsigned_NDA.pdf</t>
+  </si>
+  <si>
+    <t>Mike_Unsigned_NDA.pdf</t>
+  </si>
+  <si>
+    <t>Mike_White_ASU_Signed_NDA.pdf</t>
+  </si>
+  <si>
+    <t>Mike_White_NDA_Word.pdf</t>
+  </si>
+  <si>
+    <t>MOU -- De-Escalation.pdf</t>
+  </si>
+  <si>
+    <t>MOU_AIR_Presented_to_Board_of_Estimates-compressed.pdf</t>
+  </si>
+  <si>
+    <t>Preliminary Findings from the Aerial Investigation Research Pilot Program</t>
+  </si>
+  <si>
+    <t>N_Todak_ASU_Signed_NDA.pdf</t>
+  </si>
+  <si>
+    <t>Natalie_Todak_NDA_Word.pdf</t>
+  </si>
+  <si>
+    <t>Natalie_Unsigned_NDA.pdf</t>
+  </si>
+  <si>
+    <t>Request_for_Extension_2024 Redacted.pdf</t>
+  </si>
+  <si>
+    <t>Chicago Quality Interaction Training Program: A Randomized Control Trial of Police Innovation</t>
+  </si>
+  <si>
+    <t>Resol._auth._MOU_-_Vera_Institute_-_Multi_City_911_Analysis_Project_-_Auth._09-17-18.pdf</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>SIGNED_MOU.pdf</t>
+  </si>
+  <si>
+    <t>Subgrant P3i project.pdf</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Officer Perceptions of Body-Worn Cameras Before and After Deployment: A Study of Three Departments</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>The_Police_Foundation_Research_Agreement.pdf</t>
+  </si>
+  <si>
+    <t>Standard_Confidentiality_Agreement_-_Investigators_Study.pdf</t>
+  </si>
+  <si>
+    <t>Data_Sharing_and_Confidentiality_Agreement_PWCPD-GMU_SIGNED.pdf</t>
+  </si>
+  <si>
+    <t>SPD_Reasearch_Agreement_2019_-_74_Lum__Koper.docx.pdf</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>SIUC 12-24 subaward.pdf</t>
+  </si>
+  <si>
+    <t>St. Louis County</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Baltimore Aerial</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>BCOPS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/19338240903241259</t>
+  </si>
+  <si>
+    <t>BWC Activation</t>
+  </si>
+  <si>
+    <t>School LEO</t>
+  </si>
+  <si>
+    <t>Chicago QIP</t>
+  </si>
+  <si>
+    <t>Homeland Security</t>
+  </si>
+  <si>
+    <t>Smartphone GIS</t>
+  </si>
+  <si>
+    <t>Hate Crimes</t>
+  </si>
+  <si>
+    <t>https://nij.ojp.gov/library/publications/chicago-quality-interaction-training-program-randomized-control-trial-police</t>
+  </si>
+  <si>
+    <t>https://www.rand.org/pubs/research_reports/RRA1131-2.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/1098611114526017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/1098611116653398</t>
+  </si>
+  <si>
+    <t>https://www.rand.org/pubs/research_reports/RRA1131-1.html</t>
+  </si>
+  <si>
+    <t>https://nij.ojp.gov/library/publications/randomized-trial-evaluation-law-enforcement-application-smartphones-and</t>
+  </si>
+  <si>
+    <t>BODY-WORN CAMERAS AS A POTENTIAL SOURCE OF DEPOLICING: TESTING FOR CAMERA-INDUCED PASSIVITY</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1745-9125.12179</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>National sample</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Prince William County VA</t>
+  </si>
+  <si>
+    <t>St Louis</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Dane County</t>
+  </si>
+  <si>
+    <t>Contract With</t>
+  </si>
+  <si>
+    <t>DC BWC RCT</t>
+  </si>
+  <si>
+    <t>A randomized control trial evaluating the effects of police body-worn cameras</t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1814773116</t>
+  </si>
+  <si>
+    <t>ASU BWC RCT</t>
+  </si>
+  <si>
+    <t>2023-FOIA-08968.pdf</t>
+  </si>
+  <si>
+    <t>Southern Illinois University</t>
+  </si>
+  <si>
+    <t>George Mason University</t>
+  </si>
+  <si>
+    <t>Baltimore Police</t>
+  </si>
+  <si>
+    <t>RAND Corporation</t>
+  </si>
+  <si>
+    <t>UPenn-Confidential_Information_MOU_2021.05.21.docx</t>
+  </si>
+  <si>
+    <t>Boston PD</t>
+  </si>
+  <si>
+    <t>Camden PD</t>
+  </si>
+  <si>
+    <t>Vera Institute of Justice</t>
+  </si>
+  <si>
+    <t>Schuck NACJD Signed Redacted.pdf</t>
+  </si>
+  <si>
+    <t>Chicago PD</t>
+  </si>
+  <si>
+    <t>University of Illinois Chicago</t>
+  </si>
+  <si>
+    <t>DC PD</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>Houston PD</t>
+  </si>
+  <si>
+    <t>Louisville Metro PD</t>
+  </si>
+  <si>
+    <t>University of Cincinnati</t>
+  </si>
+  <si>
+    <t>Termination -- De-Escalation.pdf</t>
+  </si>
+  <si>
+    <t>NYPD</t>
+  </si>
+  <si>
+    <t>The John F. Finn Institute for Public Safety</t>
+  </si>
+  <si>
+    <t>2018-139 (sc) Dr. Jennifer Eberhardt - Work Order #15098- Eberhardt Consulting- Amendment No. 2 - signed.pdf</t>
+  </si>
+  <si>
+    <t>Oakland City</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>2015 Misc - Jennifer Eberhardt Professional Standford University - Amendment 1.pdf</t>
+  </si>
+  <si>
+    <t>2017 Misc - Eberhardt Consulting.pdf</t>
+  </si>
+  <si>
+    <t>2015 Misc - Jennifer Eberhardt - Amendment 2.pdf</t>
+  </si>
+  <si>
+    <t>EBERHARDT CONSULTING - AMENDMENT 1.pdf</t>
+  </si>
+  <si>
+    <t>2014 Misc - Jennifer Eberhardt.pdf</t>
+  </si>
+  <si>
+    <t>2017 Misc - Jennifer Eberhardt - Amendment 3.pdf</t>
+  </si>
+  <si>
+    <t>Pinellas County Sheriff</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Prince Williams County VA</t>
+  </si>
+  <si>
+    <t>Spokane PD</t>
+  </si>
+  <si>
+    <t>Arizona State University</t>
+  </si>
+  <si>
+    <t>St. Louis PD</t>
+  </si>
+  <si>
+    <t>Center for Healthy Minds  UWPD MOU.pdf</t>
+  </si>
+  <si>
+    <t>University of Wisconsin PD</t>
+  </si>
+  <si>
+    <t>University of Wisconsin Madison</t>
+  </si>
+  <si>
+    <t>University of Nebraska Lincoln</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>Buffalo PD</t>
+  </si>
+  <si>
     <t>23-01169-FOIA.pdf</t>
   </si>
   <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Atypical Work Hours and Metabolic Syndrome Among Police Officers</t>
-  </si>
-  <si>
-    <t>Center for Healthy Minds UWPD MOU_1.pdf</t>
-  </si>
-  <si>
-    <t>CHM_UWPD_MOU-May_2018_signed.pdf</t>
-  </si>
-  <si>
-    <t>CID1724_MITRE_-_Fully_Executed_Agreement.pdf</t>
-  </si>
-  <si>
-    <t>Pinellas County</t>
-  </si>
-  <si>
-    <t>CID2810_NIST_PCSO_Face_DTA_FULLY_EXECUTED.pdf</t>
-  </si>
-  <si>
-    <t>Data Use Agreement -- De-Escalation.pdf</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>David_Choate_ASU_NDA_2017 (2).pdf</t>
-  </si>
-  <si>
-    <t>Spokane</t>
-  </si>
-  <si>
-    <t>David_Choate_ASU_NDA_2017 1.pdf</t>
-  </si>
-  <si>
-    <t>David_Choate_ASU_NDA_2017.pdf</t>
-  </si>
-  <si>
-    <t>David_Choate_NDA_Word_Updated_for_2017.pdf</t>
-  </si>
-  <si>
-    <t>Randomized-Trial Evaluation of a Law Enforcement Application for Smartphones and Laptops that Uses GIS and Location-Based Services' to Pinpoint Persons-of-Interest</t>
-  </si>
-  <si>
-    <t>Gaub__Choate_Signed_NDA.pdf</t>
-  </si>
-  <si>
-    <t>Haynes 11500 Data Permission.pdf</t>
-  </si>
-  <si>
-    <t>Homeland Security Risk and Preparedness in Police Agencies: The Insignificance of Actual Risk Factors</t>
-  </si>
-  <si>
-    <t>Janne_Gaub_ASU_NDA_2017.pdf</t>
-  </si>
-  <si>
-    <t>Janne_Gaub_ASU_Signed_NDA.pdf</t>
-  </si>
-  <si>
-    <t>Janne_Gaub_NDA_Word (1).pdf</t>
-  </si>
-  <si>
-    <t>Janne_Gaub_NDA_Word_Updated_for_2017.pdf</t>
-  </si>
-  <si>
-    <t>Janne_Gaub_NDA_Word.pdf</t>
-  </si>
-  <si>
-    <t>Janne_Unsigned_NDA.pdf</t>
-  </si>
-  <si>
-    <t>Mike_Unsigned_NDA.pdf</t>
-  </si>
-  <si>
-    <t>Mike_White_ASU_Signed_NDA (1).pdf</t>
-  </si>
-  <si>
-    <t>Mike_White_ASU_Signed_NDA.pdf</t>
-  </si>
-  <si>
-    <t>Mike_White_NDA_Word.pdf</t>
-  </si>
-  <si>
-    <t>MOU -- De-Escalation.pdf</t>
-  </si>
-  <si>
-    <t>MOU_AIR_Presented_to_Board_of_Estimates-compressed.pdf</t>
-  </si>
-  <si>
-    <t>Preliminary Findings from the Aerial Investigation Research Pilot Program</t>
-  </si>
-  <si>
-    <t>MOU.pdf</t>
-  </si>
-  <si>
-    <t>N_Todak_ASU_Signed_NDA.pdf</t>
-  </si>
-  <si>
-    <t>Natalie_Todak_NDA_Word.pdf</t>
-  </si>
-  <si>
-    <t>Natalie_Unsigned_NDA (1).pdf</t>
-  </si>
-  <si>
-    <t>Natalie_Unsigned_NDA.pdf</t>
-  </si>
-  <si>
-    <t>Request_for_Extension_2024 Redacted.pdf</t>
-  </si>
-  <si>
-    <t>NPRP</t>
-  </si>
-  <si>
-    <t>Chicago Quality Interaction Training Program: A Randomized Control Trial of Police Innovation</t>
-  </si>
-  <si>
-    <t>Resol._auth._MOU_-_Vera_Institute_-_Multi_City_911_Analysis_Project_-_Auth._09-17-18.pdf</t>
-  </si>
-  <si>
-    <t>Camden</t>
-  </si>
-  <si>
-    <t>Schuck NACJD Signed Redacted-1.pdf</t>
-  </si>
-  <si>
-    <t>NAJCD</t>
-  </si>
-  <si>
-    <t>SIGNED_MOU.pdf</t>
-  </si>
-  <si>
-    <t>Subgrant P3i project.pdf</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Tempe ASU Services Agreement.pdf</t>
-  </si>
-  <si>
-    <t>Tempe</t>
-  </si>
-  <si>
-    <t>Officer Perceptions of Body-Worn Cameras Before and After Deployment: A Study of Three Departments</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>The_Police_Foundation_Research_Agreement.pdf</t>
-  </si>
-  <si>
-    <t>Standard_Confidentiality_Agreement_-_Investigators_Study.pdf</t>
-  </si>
-  <si>
-    <t>Data_Sharing_and_Confidentiality_Agreement_PWCPD-GMU_SIGNED.pdf</t>
-  </si>
-  <si>
-    <t>SPD_Reasearch_Agreement_2019_-_74_Lum__Koper.docx.pdf</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Prince William County</t>
-  </si>
-  <si>
-    <t>SIUC 12-24 subaward.pdf</t>
-  </si>
-  <si>
-    <t>St. Louis County</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Baltimore Aerial</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>BCOPS</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1080/19338240903241259</t>
-  </si>
-  <si>
-    <t>BWC Activation</t>
-  </si>
-  <si>
-    <t>School LEO</t>
-  </si>
-  <si>
-    <t>Chicago QIP</t>
-  </si>
-  <si>
-    <t>Homeland Security</t>
-  </si>
-  <si>
-    <t>Smartphone GIS</t>
-  </si>
-  <si>
-    <t>Hate Crimes</t>
-  </si>
-  <si>
-    <t>https://nij.ojp.gov/library/publications/chicago-quality-interaction-training-program-randomized-control-trial-police</t>
-  </si>
-  <si>
-    <t>https://www.rand.org/pubs/research_reports/RRA1131-2.html</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/1098611114526017</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/1098611116653398</t>
-  </si>
-  <si>
-    <t>https://www.rand.org/pubs/research_reports/RRA1131-1.html</t>
-  </si>
-  <si>
-    <t>https://nij.ojp.gov/library/publications/randomized-trial-evaluation-law-enforcement-application-smartphones-and</t>
-  </si>
-  <si>
-    <t>BODY-WORN CAMERAS AS A POTENTIAL SOURCE OF DEPOLICING: TESTING FOR CAMERA-INDUCED PASSIVITY</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/1745-9125.12179</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Detroit</t>
-  </si>
-  <si>
-    <t>National sample</t>
-  </si>
-  <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Prince William County VA</t>
-  </si>
-  <si>
-    <t>St Louis</t>
-  </si>
-  <si>
-    <t>Tucson</t>
-  </si>
-  <si>
-    <t>Dane County</t>
-  </si>
-  <si>
-    <t>Contract With</t>
-  </si>
-  <si>
-    <t>DC BWC RCT</t>
-  </si>
-  <si>
-    <t>A randomized control trial evaluating the effects of police body-worn cameras</t>
-  </si>
-  <si>
-    <t>Washington DC</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1073/pnas.1814773116</t>
-  </si>
-  <si>
-    <t>ASU BWC RCT</t>
-  </si>
-  <si>
-    <t>2023-FOIA-08968.pdf</t>
+    <t>University of Pennsylvania</t>
   </si>
 </sst>
 </file>
@@ -950,500 +1034,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4221BE9-E742-8E4F-8AEB-C256CC5E36C0}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>166</v>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1473,365 +1588,365 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1869,39 +1984,39 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1909,39 +2024,39 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1949,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1957,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1965,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1973,7 +2088,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1981,23 +2096,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2005,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2013,15 +2128,15 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6AD3E6-8C5E-E343-A99E-0C1105DA298B}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -2044,47 +2159,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -2092,15 +2207,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -2108,47 +2223,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -2156,31 +2271,31 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -2188,63 +2303,63 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>9</v>
@@ -2252,170 +2367,170 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
